--- a/step2-Output.xlsx
+++ b/step2-Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A730BE1-F743-4F51-A36B-D8458BC7C709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D4CDA7-25E7-44EC-9882-7C40659B542E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,10 +169,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K8" sqref="K8:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -707,7 +707,7 @@
       <c r="G8">
         <v>17</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <f>_xlfn.STDEV.S(D2:D31)</f>
         <v>15.338667238182012</v>
       </c>
@@ -715,16 +715,16 @@
         <f>AVERAGE(D2:D31)</f>
         <v>191.36666666666667</v>
       </c>
-      <c r="K8" s="3">
-        <f>J8-1.96*I8/SQRT(30)</f>
-        <v>185.87779508836707</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
-        <f>J8+1.96*I8/SQRT(30)</f>
-        <v>196.85553824496628</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="K8" s="4">
+        <f>J8-2.045*I8/SQRT(30)</f>
+        <v>185.63975729032856</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4">
+        <f>J8+2.045*I8/SQRT(30)</f>
+        <v>197.09357604300479</v>
+      </c>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -745,7 +745,7 @@
       <c r="G9">
         <v>18</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <f>_xlfn.STDEV.S(D32:D61)</f>
         <v>12.764714295058965</v>
       </c>
@@ -753,16 +753,16 @@
         <f>AVERAGE(D32:D61)</f>
         <v>166.6</v>
       </c>
-      <c r="K9" s="3">
-        <f>J9-1.96*I9/SQRT(30)</f>
-        <v>162.03220565311852</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3">
-        <f>J9+1.96*I9/SQRT(30)</f>
-        <v>171.16779434688146</v>
-      </c>
-      <c r="N9" s="3"/>
+      <c r="K9" s="4">
+        <f t="shared" ref="K9:K12" si="0">J9-2.045*I9/SQRT(30)</f>
+        <v>161.83411253093234</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:M12" si="1">J9+2.045*I9/SQRT(30)</f>
+        <v>171.36588746906764</v>
+      </c>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -783,7 +783,7 @@
       <c r="G10">
         <v>19</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <f>_xlfn.STDEV.S(D62:D91)</f>
         <v>1.9826836567538</v>
       </c>
@@ -791,16 +791,16 @@
         <f>AVERAGE(D62:D91)</f>
         <v>119</v>
       </c>
-      <c r="K10" s="3">
-        <f>J10-1.96*I10/SQRT(30)</f>
-        <v>118.29050576537541</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <f>J10+1.96*I10/SQRT(30)</f>
-        <v>119.70949423462459</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>118.2597368827514</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>119.7402631172486</v>
+      </c>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -821,7 +821,7 @@
       <c r="G11">
         <v>20</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <f>_xlfn.STDEV.S(D92:D121)</f>
         <v>1.6746953976497753E-2</v>
       </c>
@@ -829,16 +829,16 @@
         <f>AVERAGE(D92:D121)</f>
         <v>0.9869749177844519</v>
       </c>
-      <c r="K11" s="3">
-        <f>J11-1.96*I11/SQRT(30)</f>
-        <v>0.98098209726899854</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3">
-        <f>J11+1.96*I11/SQRT(30)</f>
-        <v>0.99296773829990526</v>
-      </c>
-      <c r="N11" s="3"/>
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.98072220454256298</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.99322763102634082</v>
+      </c>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -859,7 +859,7 @@
       <c r="G12">
         <v>21</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f>_xlfn.STDEV.S(D122:D151)</f>
         <v>12.764714295058965</v>
       </c>
@@ -867,16 +867,16 @@
         <f>AVERAGE(D122:D151)</f>
         <v>166.6</v>
       </c>
-      <c r="K12" s="3">
-        <f>J12-1.96*I12/SQRT(30)</f>
-        <v>162.03220565311852</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
-        <f>J12+1.96*I12/SQRT(30)</f>
-        <v>171.16779434688146</v>
-      </c>
-      <c r="N12" s="3"/>
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>161.83411253093234</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>171.36588746906764</v>
+      </c>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -3246,8 +3246,6 @@
     <sortCondition ref="B2:B151"/>
   </sortState>
   <mergeCells count="10">
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="K12:L12"/>
@@ -3256,6 +3254,8 @@
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
